--- a/DATA_goal/Junction_Flooding_493.xlsx
+++ b/DATA_goal/Junction_Flooding_493.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44824.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.33</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.36</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.71</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.18</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.42</v>
+        <v>24.23</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.35</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.25</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.19</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.65</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>12.42</v>
+        <v>124.22</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.38</v>
+        <v>23.83</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.98</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.5</v>
+        <v>14.96</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.6</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.16</v>
+        <v>21.63</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44824.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.78</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.08</v>
+        <v>20.81</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.6</v>
+        <v>15.98</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.27</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.85</v>
+        <v>28.5</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.6</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.88</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.31</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.71</v>
+        <v>107.12</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.11</v>
+        <v>21.05</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.65</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.19</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.46</v>
+        <v>14.58</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.65</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.76</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.62</v>
+        <v>26.18</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.68</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44824.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.65</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.24</v>
+        <v>12.36</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.65</v>
+        <v>36.54</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.94</v>
+        <v>29.38</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.3</v>
+        <v>13.03</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.94</v>
+        <v>49.37</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.03</v>
+        <v>20.33</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.65</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.57</v>
+        <v>15.66</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.06</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.86</v>
+        <v>18.58</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.29</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>19.3</v>
+        <v>192.96</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.68</v>
+        <v>36.75</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.45</v>
+        <v>24.48</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.88</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.46</v>
+        <v>24.62</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.49</v>
+        <v>44.85</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.52</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44824.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.56</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.15</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.3</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.78</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.85</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.29</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_493.xlsx
+++ b/DATA_goal/Junction_Flooding_493.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44824.54861111111</v>
+        <v>45174.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.73</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.33</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>23.56</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>17.15</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.18</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>24.23</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.35</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.31</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.19</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.65</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.65</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.96</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>124.22</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>23.83</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.98</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.96</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.05</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.63</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.56</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.94</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>21.63</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.08</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44824.55555555555</v>
+        <v>45174.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>18.764</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.78</v>
+        <v>14.012</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.52</v>
+        <v>0.672</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>20.81</v>
+        <v>41.453</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>15.98</v>
+        <v>35.05</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.27</v>
+        <v>14.973</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>28.5</v>
+        <v>48.024</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.6</v>
+        <v>22.737</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.96</v>
+        <v>10.338</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.88</v>
+        <v>15.906</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.31</v>
+        <v>18.091</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.02</v>
+        <v>17.396</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.2</v>
+        <v>5.623</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.52</v>
+        <v>14.883</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.42</v>
+        <v>21.254</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.77</v>
+        <v>12.147</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.28</v>
+        <v>0.253</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.891</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>107.12</v>
+        <v>220.953</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>21.05</v>
+        <v>41.013</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.94</v>
+        <v>13.718</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.65</v>
+        <v>27.887</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.19</v>
+        <v>14.504</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.4</v>
+        <v>2.901</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.58</v>
+        <v>24.806</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.13</v>
+        <v>12.186</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.65</v>
+        <v>10.767</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.58</v>
+        <v>12.876</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.76</v>
+        <v>18.499</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.533</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>26.18</v>
+        <v>43.923</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.68</v>
+        <v>8.355</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.68</v>
+        <v>16.923</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44824.5625</v>
+        <v>45174.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.65</v>
+        <v>15.103</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.36</v>
+        <v>11.294</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.31</v>
+        <v>0.472</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>36.54</v>
+        <v>33.301</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>29.38</v>
+        <v>27.908</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.03</v>
+        <v>12.023</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>49.37</v>
+        <v>46.976</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.33</v>
+        <v>18.302</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9</v>
+        <v>8.343999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.02</v>
+        <v>12.614</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.65</v>
+        <v>14.118</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.66</v>
+        <v>13.988</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.06</v>
+        <v>4.363</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.16</v>
+        <v>11.89</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.58</v>
+        <v>17.14</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.29</v>
+        <v>9.819000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.169</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>192.96</v>
+        <v>175.494</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>36.75</v>
+        <v>33.195</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.15</v>
+        <v>10.966</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>24.48</v>
+        <v>22.578</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.88</v>
+        <v>11.707</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.98</v>
+        <v>2.123</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>24.62</v>
+        <v>22.956</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.73</v>
+        <v>9.782999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>8.662000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.26</v>
+        <v>10.31</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.41</v>
+        <v>14.636</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.861</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>44.85</v>
+        <v>43.315</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.73</v>
+        <v>6.597</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.19</v>
+        <v>13.623</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44824.56944444445</v>
+        <v>45174.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.83</v>
+        <v>21.91</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.53</v>
+        <v>16.42</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.07</v>
+        <v>48</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.08</v>
+        <v>39.93</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.61</v>
+        <v>17.35</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.56</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.14</v>
+        <v>26.54</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.63</v>
+        <v>12.02</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.28</v>
+        <v>18.02</v>
       </c>
       <c r="L5" s="4" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.82</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.14</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>4.3</v>
+        <v>255.71</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.71</v>
+        <v>47.99</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>15.85</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.78</v>
+        <v>32.59</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.79</v>
+        <v>17.01</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.65</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.85</v>
+        <v>32.46</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.61</v>
+        <v>14.09</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.71</v>
+        <v>12.43</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.78</v>
+        <v>14.7</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.87</v>
+        <v>20.66</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.29</v>
+        <v>60.53</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.24</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44824.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.87</v>
+        <v>19.77</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_493.xlsx
+++ b/DATA_goal/Junction_Flooding_493.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,14 +444,14 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45174.50694444445</v>
+        <v>44824.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>10.726</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>7.333</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.404</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>8.176</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>24.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>13.347</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>5.245</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>7.323</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>10.191</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>8.647</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>11.655</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>7.955</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>2.648</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.093</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>124.223</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>23.834</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>7.982</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>14.964</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>13.597</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>6.629</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>7.562</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>9.942</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>2.682</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>21.628</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>4.075</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>9.978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45174.51388888889</v>
+        <v>44824.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.764</v>
+        <v>9.391</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.012</v>
+        <v>6.784</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.672</v>
+        <v>1.524</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>41.453</v>
+        <v>20.814</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>35.05</v>
+        <v>15.979</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.973</v>
+        <v>7.268</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>48.024</v>
+        <v>28.503</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.737</v>
+        <v>11.604</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.338</v>
+        <v>4.96</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.906</v>
+        <v>6.881</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.091</v>
+        <v>8.313000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>17.396</v>
+        <v>9.016</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.623</v>
+        <v>2.195</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.883</v>
+        <v>7.519</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>21.254</v>
+        <v>10.421</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.147</v>
+        <v>6.766</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.253</v>
+        <v>1.278</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.891</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>220.953</v>
+        <v>107.123</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>41.013</v>
+        <v>21.052</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.718</v>
+        <v>6.941</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>27.887</v>
+        <v>13.647</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.504</v>
+        <v>7.188</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.901</v>
+        <v>1.395</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>24.806</v>
+        <v>14.577</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.186</v>
+        <v>6.131</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.767</v>
+        <v>5.654</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.876</v>
+        <v>6.583</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>18.499</v>
+        <v>8.76</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.533</v>
+        <v>1.136</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>43.923</v>
+        <v>26.177</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.355</v>
+        <v>3.681</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.923</v>
+        <v>8.677</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45174.52083333334</v>
+        <v>44824.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.103</v>
+        <v>16.651</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.294</v>
+        <v>12.36</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.472</v>
+        <v>1.312</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>33.301</v>
+        <v>36.543</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>27.908</v>
+        <v>29.377</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.023</v>
+        <v>13.028</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>46.976</v>
+        <v>49.373</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>18.302</v>
+        <v>20.331</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.343999999999999</v>
+        <v>9.000999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.614</v>
+        <v>13.015</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.118</v>
+        <v>14.647</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.988</v>
+        <v>15.662</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.363</v>
+        <v>4.061</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.89</v>
+        <v>13.159</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>17.14</v>
+        <v>18.579</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.819000000000001</v>
+        <v>11.286</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.169</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.658</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>175.494</v>
+        <v>192.96</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>33.195</v>
+        <v>36.751</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.966</v>
+        <v>12.146</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>22.578</v>
+        <v>24.481</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.707</v>
+        <v>12.877</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.123</v>
+        <v>1.978</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>22.956</v>
+        <v>24.621</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.782999999999999</v>
+        <v>10.728</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.662000000000001</v>
+        <v>9.606</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.31</v>
+        <v>11.265</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.636</v>
+        <v>15.406</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.861</v>
+        <v>0.722</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>43.315</v>
+        <v>44.852</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.597</v>
+        <v>6.732</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.623</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45174.52777777778</v>
+        <v>44824.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.91</v>
+        <v>0.83</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.42</v>
+        <v>0.525</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>2.071</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.607</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>10.555</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.135</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.147</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>4.298</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>2.713</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.694</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>4.851</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.529</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>10.286</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>0.887</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44824.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V6" s="4" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>48</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>39.93</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>17.35</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>66.31999999999999</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>26.54</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>18.02</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>20.26</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>17.17</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>14.24</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>255.71</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>47.99</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>15.85</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>32.59</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>32.46</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>20.66</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>60.53</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>19.77</v>
+      <c r="W6" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_493.xlsx
+++ b/DATA_goal/Junction_Flooding_493.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,14 +444,14 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44824.54861111111</v>
+        <v>45174.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.726</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.333</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.404</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>23.56</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>17.15</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.176</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>24.228</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.347</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.245</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.323</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.308999999999999</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.191</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.647</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.655</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.955</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.648</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.093</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>124.223</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>23.834</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.982</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.964</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.048999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.597</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.05</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.629</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.562</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.942</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.682</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>21.628</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.075</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44824.55555555555</v>
+        <v>45174.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.391</v>
+        <v>18.764</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.784</v>
+        <v>14.012</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.524</v>
+        <v>0.672</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>20.814</v>
+        <v>41.453</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>15.979</v>
+        <v>35.05</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.268</v>
+        <v>14.973</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>28.503</v>
+        <v>48.024</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.604</v>
+        <v>22.737</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.96</v>
+        <v>10.338</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.881</v>
+        <v>15.906</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.313000000000001</v>
+        <v>18.091</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.016</v>
+        <v>17.396</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.195</v>
+        <v>5.623</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.519</v>
+        <v>14.883</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.421</v>
+        <v>21.254</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.766</v>
+        <v>12.147</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.278</v>
+        <v>0.253</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.891</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>107.123</v>
+        <v>220.953</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>21.052</v>
+        <v>41.013</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.941</v>
+        <v>13.718</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.647</v>
+        <v>27.887</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.188</v>
+        <v>14.504</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.395</v>
+        <v>2.901</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.577</v>
+        <v>24.806</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.131</v>
+        <v>12.186</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.654</v>
+        <v>10.767</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.583</v>
+        <v>12.876</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.76</v>
+        <v>18.499</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.136</v>
+        <v>1.533</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>26.177</v>
+        <v>43.923</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.681</v>
+        <v>8.355</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.677</v>
+        <v>16.923</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44824.5625</v>
+        <v>45174.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.651</v>
+        <v>15.103</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.36</v>
+        <v>11.294</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.312</v>
+        <v>0.472</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>36.543</v>
+        <v>33.301</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>29.377</v>
+        <v>27.908</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.028</v>
+        <v>12.023</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>49.373</v>
+        <v>46.976</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.331</v>
+        <v>18.302</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.000999999999999</v>
+        <v>8.343999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.015</v>
+        <v>12.614</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.647</v>
+        <v>14.118</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.662</v>
+        <v>13.988</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.061</v>
+        <v>4.363</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.159</v>
+        <v>11.89</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.579</v>
+        <v>17.14</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.286</v>
+        <v>9.819000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.169</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.658</v>
+        <v>0.67</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>192.96</v>
+        <v>175.494</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>36.751</v>
+        <v>33.195</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.146</v>
+        <v>10.966</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>24.481</v>
+        <v>22.578</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.877</v>
+        <v>11.707</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.978</v>
+        <v>2.123</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>24.621</v>
+        <v>22.956</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.728</v>
+        <v>9.782999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.606</v>
+        <v>8.662000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.265</v>
+        <v>10.31</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.406</v>
+        <v>14.636</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.722</v>
+        <v>0.861</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>44.852</v>
+        <v>43.315</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.732</v>
+        <v>6.597</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.185</v>
+        <v>13.623</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44824.56944444445</v>
+        <v>45174.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.83</v>
+        <v>21.91</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.525</v>
+        <v>16.42</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.576</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.071</v>
+        <v>48</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.078</v>
+        <v>39.93</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.607</v>
+        <v>17.35</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.555</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.135</v>
+        <v>26.54</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.632</v>
+        <v>12.02</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.281</v>
+        <v>18.02</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.822</v>
+        <v>19.76</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.001</v>
+        <v>20.26</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.154</v>
+        <v>5.92</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.752</v>
+        <v>17.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.147</v>
+        <v>24.7</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.924</v>
+        <v>14.24</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.21</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.137</v>
+        <v>0.82</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>4.298</v>
+        <v>255.71</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.713</v>
+        <v>47.99</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.694</v>
+        <v>15.85</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.779</v>
+        <v>32.59</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.787</v>
+        <v>17.01</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.282</v>
+        <v>2.65</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.851</v>
+        <v>32.46</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.613</v>
+        <v>14.09</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.708</v>
+        <v>12.43</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.78</v>
+        <v>14.7</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.866</v>
+        <v>20.66</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.529</v>
+        <v>0.6</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.286</v>
+        <v>60.53</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.245</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.887</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44824.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.87</v>
+        <v>19.77</v>
       </c>
     </row>
   </sheetData>
